--- a/data/input/COVID19_TargetList_ChemSpace_mod_GZK.xlsx
+++ b/data/input/COVID19_TargetList_ChemSpace_mod_GZK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahoo/Projects/COVID-19/Neo4COVID-19/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahoranszkykog2/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10481FE5-AB76-8E4A-BDD4-310B9DEB5ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0040AE0-84E4-AA47-AB7D-5B6DA5FC83B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="46920" windowHeight="27040" activeTab="2" xr2:uid="{EA8419FB-5C05-CF44-9C7F-D8CC45F56A1D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EA8419FB-5C05-CF44-9C7F-D8CC45F56A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="NHC" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="177">
   <si>
     <t>Uniprot</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Adenosine receptor A1</t>
   </si>
   <si>
-    <t>P03230</t>
-  </si>
-  <si>
-    <t>LMP1</t>
-  </si>
-  <si>
     <t>P00813</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>DNA (cytosine-5)-methyltransferase 1</t>
   </si>
   <si>
-    <t>PTH</t>
-  </si>
-  <si>
     <t>cAMP-dependent protein kinase type I alpha</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Isoleucyl-tRNA synthetase</t>
   </si>
   <si>
-    <t>tmpC</t>
-  </si>
-  <si>
     <t>SLC5A7</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
     <t>Q9GZV3</t>
   </si>
   <si>
-    <t>P29724</t>
-  </si>
-  <si>
     <t>P49773</t>
   </si>
   <si>
@@ -268,18 +253,9 @@
     <t>Myeloperoxidase</t>
   </si>
   <si>
-    <t>CPK1</t>
-  </si>
-  <si>
     <t>chloroquine</t>
   </si>
   <si>
-    <t>DOOH</t>
-  </si>
-  <si>
-    <t>Q02127</t>
-  </si>
-  <si>
     <t>DHFR</t>
   </si>
   <si>
@@ -307,9 +283,6 @@
     <t>cytarabine</t>
   </si>
   <si>
-    <t>Q9HVC3</t>
-  </si>
-  <si>
     <t>azacitidine</t>
   </si>
   <si>
@@ -406,84 +379,6 @@
     <t>Transient receptor potential cation channel subfamily M member 4</t>
   </si>
   <si>
-    <r>
-      <t>Latent membrane protein 1 (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Epstein-barr virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Peptidyl-tRNA hydrolase (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Pseudomonas aeruginosa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Membrane lipoprotein TmpC (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Treponema pallidum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>HCQ</t>
   </si>
   <si>
@@ -520,38 +415,6 @@
     <t>TNF receptor-associated factor 3</t>
   </si>
   <si>
-    <r>
-      <t>Gag-pol polyprotein (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Human immunodeficiency virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>gag-pol</t>
-  </si>
-  <si>
-    <t>P03366</t>
-  </si>
-  <si>
     <t>Amyloid-beta precursor protein</t>
   </si>
   <si>
@@ -570,44 +433,6 @@
     <t>BACE1</t>
   </si>
   <si>
-    <t>P62343</t>
-  </si>
-  <si>
-    <r>
-      <t>Calcium-dependent protein kinase 1 (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Plasmodium falciparum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Histidine-rich protein PFHRP-II (Plasmodium falciparum)</t>
-  </si>
-  <si>
-    <t>P05227</t>
-  </si>
-  <si>
-    <t>PFHRP-II</t>
-  </si>
-  <si>
     <t>Major prion protein</t>
   </si>
   <si>
@@ -626,32 +451,6 @@
     <t>P16083</t>
   </si>
   <si>
-    <r>
-      <t>Dihydroorotate dehydrogenase (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Saccharomyces cerevisiae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Tryptase alpha/beta-1</t>
   </si>
   <si>
@@ -701,12 +500,6 @@
   </si>
   <si>
     <t>P06870</t>
-  </si>
-  <si>
-    <t>guanosine</t>
-  </si>
-  <si>
-    <t>inosine</t>
   </si>
   <si>
     <t>alogliptin</t>
@@ -776,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -800,14 +593,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri Light"/>
@@ -815,14 +600,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -862,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,22 +654,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B448418-5F94-004E-9F17-4E52312A7225}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,342 +1000,342 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>123</v>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
+      <c r="A15" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+      <c r="A16" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
+      <c r="A17" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1592,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1609,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1626,707 +1400,622 @@
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>37</v>
+      <c r="A34" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>47</v>
+      <c r="A41" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="B53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>51</v>
+      <c r="B54" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2337,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21014C-571D-C340-B3D2-FF9F93B17C31}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2354,461 +2043,393 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>139</v>
+      <c r="A2" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>149</v>
+      <c r="A3" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>148</v>
+        <v>64</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>151</v>
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>159</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AA197A-4B3D-634C-AEE6-5B1777B94A81}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2833,104 +2454,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
